--- a/data/5273.xlsx
+++ b/data/5273.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I953"/>
+  <dimension ref="A1:I954"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33753,6 +33753,41 @@
         <v>3102800</v>
       </c>
     </row>
+    <row r="954">
+      <c r="A954" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B954" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C954" t="inlineStr">
+        <is>
+          <t>5273</t>
+        </is>
+      </c>
+      <c r="D954" t="inlineStr">
+        <is>
+          <t>CHINHIN</t>
+        </is>
+      </c>
+      <c r="E954" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="F954" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="G954" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H954" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I954" t="n">
+        <v>1408100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5273.xlsx
+++ b/data/5273.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I954"/>
+  <dimension ref="A1:I955"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33788,6 +33788,41 @@
         <v>1408100</v>
       </c>
     </row>
+    <row r="955">
+      <c r="A955" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B955" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C955" t="inlineStr">
+        <is>
+          <t>5273</t>
+        </is>
+      </c>
+      <c r="D955" t="inlineStr">
+        <is>
+          <t>CHINHIN</t>
+        </is>
+      </c>
+      <c r="E955" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F955" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G955" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H955" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="I955" t="n">
+        <v>744400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5273.xlsx
+++ b/data/5273.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I955"/>
+  <dimension ref="A1:I956"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33823,6 +33823,41 @@
         <v>744400</v>
       </c>
     </row>
+    <row r="956">
+      <c r="A956" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B956" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C956" t="inlineStr">
+        <is>
+          <t>5273</t>
+        </is>
+      </c>
+      <c r="D956" t="inlineStr">
+        <is>
+          <t>CHINHIN</t>
+        </is>
+      </c>
+      <c r="E956" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="F956" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="G956" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H956" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="I956" t="n">
+        <v>1347900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5273.xlsx
+++ b/data/5273.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I956"/>
+  <dimension ref="A1:I957"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33858,6 +33858,41 @@
         <v>1347900</v>
       </c>
     </row>
+    <row r="957">
+      <c r="A957" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B957" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C957" t="inlineStr">
+        <is>
+          <t>5273</t>
+        </is>
+      </c>
+      <c r="D957" t="inlineStr">
+        <is>
+          <t>CHINHIN</t>
+        </is>
+      </c>
+      <c r="E957" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="F957" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="G957" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H957" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="I957" t="n">
+        <v>984800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5273.xlsx
+++ b/data/5273.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I957"/>
+  <dimension ref="A1:I958"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33893,6 +33893,41 @@
         <v>984800</v>
       </c>
     </row>
+    <row r="958">
+      <c r="A958" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B958" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C958" t="inlineStr">
+        <is>
+          <t>5273</t>
+        </is>
+      </c>
+      <c r="D958" t="inlineStr">
+        <is>
+          <t>CHINHIN</t>
+        </is>
+      </c>
+      <c r="E958" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="F958" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="G958" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H958" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="I958" t="n">
+        <v>4079900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5273.xlsx
+++ b/data/5273.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I958"/>
+  <dimension ref="A1:I959"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33928,6 +33928,41 @@
         <v>4079900</v>
       </c>
     </row>
+    <row r="959">
+      <c r="A959" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B959" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C959" t="inlineStr">
+        <is>
+          <t>5273</t>
+        </is>
+      </c>
+      <c r="D959" t="inlineStr">
+        <is>
+          <t>CHINHIN</t>
+        </is>
+      </c>
+      <c r="E959" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="F959" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="G959" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H959" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="I959" t="n">
+        <v>2087400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5273.xlsx
+++ b/data/5273.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I959"/>
+  <dimension ref="A1:I960"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33963,6 +33963,41 @@
         <v>2087400</v>
       </c>
     </row>
+    <row r="960">
+      <c r="A960" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B960" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C960" t="inlineStr">
+        <is>
+          <t>5273</t>
+        </is>
+      </c>
+      <c r="D960" t="inlineStr">
+        <is>
+          <t>CHINHIN</t>
+        </is>
+      </c>
+      <c r="E960" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="F960" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="G960" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H960" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="I960" t="n">
+        <v>1380800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5273.xlsx
+++ b/data/5273.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I960"/>
+  <dimension ref="A1:I961"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33998,6 +33998,41 @@
         <v>1380800</v>
       </c>
     </row>
+    <row r="961">
+      <c r="A961" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B961" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C961" t="inlineStr">
+        <is>
+          <t>5273</t>
+        </is>
+      </c>
+      <c r="D961" t="inlineStr">
+        <is>
+          <t>CHINHIN</t>
+        </is>
+      </c>
+      <c r="E961" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F961" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G961" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H961" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="I961" t="n">
+        <v>1337400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5273.xlsx
+++ b/data/5273.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I961"/>
+  <dimension ref="A1:I962"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34033,6 +34033,41 @@
         <v>1337400</v>
       </c>
     </row>
+    <row r="962">
+      <c r="A962" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B962" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C962" t="inlineStr">
+        <is>
+          <t>5273</t>
+        </is>
+      </c>
+      <c r="D962" t="inlineStr">
+        <is>
+          <t>CHINHIN</t>
+        </is>
+      </c>
+      <c r="E962" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F962" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G962" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="H962" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I962" t="n">
+        <v>736200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5273.xlsx
+++ b/data/5273.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I962"/>
+  <dimension ref="A1:I963"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34068,6 +34068,41 @@
         <v>736200</v>
       </c>
     </row>
+    <row r="963">
+      <c r="A963" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B963" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C963" t="inlineStr">
+        <is>
+          <t>5273</t>
+        </is>
+      </c>
+      <c r="D963" t="inlineStr">
+        <is>
+          <t>CHINHIN</t>
+        </is>
+      </c>
+      <c r="E963" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="F963" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="G963" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="H963" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="I963" t="n">
+        <v>1861200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5273.xlsx
+++ b/data/5273.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I963"/>
+  <dimension ref="A1:I964"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34103,6 +34103,41 @@
         <v>1861200</v>
       </c>
     </row>
+    <row r="964">
+      <c r="A964" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B964" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C964" t="inlineStr">
+        <is>
+          <t>5273</t>
+        </is>
+      </c>
+      <c r="D964" t="inlineStr">
+        <is>
+          <t>CHINHIN</t>
+        </is>
+      </c>
+      <c r="E964" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="F964" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="G964" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="H964" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="I964" t="n">
+        <v>815900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5273.xlsx
+++ b/data/5273.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I964"/>
+  <dimension ref="A1:I965"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34138,6 +34138,41 @@
         <v>815900</v>
       </c>
     </row>
+    <row r="965">
+      <c r="A965" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B965" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C965" t="inlineStr">
+        <is>
+          <t>5273</t>
+        </is>
+      </c>
+      <c r="D965" t="inlineStr">
+        <is>
+          <t>CHINHIN</t>
+        </is>
+      </c>
+      <c r="E965" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="F965" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="G965" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="H965" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="I965" t="n">
+        <v>2463200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5273.xlsx
+++ b/data/5273.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I965"/>
+  <dimension ref="A1:I967"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34173,6 +34173,76 @@
         <v>2463200</v>
       </c>
     </row>
+    <row r="966">
+      <c r="A966" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B966" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C966" t="inlineStr">
+        <is>
+          <t>5273</t>
+        </is>
+      </c>
+      <c r="D966" t="inlineStr">
+        <is>
+          <t>CHINHIN</t>
+        </is>
+      </c>
+      <c r="E966" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="F966" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="G966" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H966" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="I966" t="n">
+        <v>1224800</v>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B967" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C967" t="inlineStr">
+        <is>
+          <t>5273</t>
+        </is>
+      </c>
+      <c r="D967" t="inlineStr">
+        <is>
+          <t>CHINHIN</t>
+        </is>
+      </c>
+      <c r="E967" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="F967" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="G967" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="H967" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="I967" t="n">
+        <v>1915600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5273.xlsx
+++ b/data/5273.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I967"/>
+  <dimension ref="A1:I969"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34243,6 +34243,76 @@
         <v>1915600</v>
       </c>
     </row>
+    <row r="968">
+      <c r="A968" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B968" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C968" t="inlineStr">
+        <is>
+          <t>5273</t>
+        </is>
+      </c>
+      <c r="D968" t="inlineStr">
+        <is>
+          <t>CHINHIN</t>
+        </is>
+      </c>
+      <c r="E968" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F968" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="G968" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="H968" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="I968" t="n">
+        <v>579600</v>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B969" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C969" t="inlineStr">
+        <is>
+          <t>5273</t>
+        </is>
+      </c>
+      <c r="D969" t="inlineStr">
+        <is>
+          <t>CHINHIN</t>
+        </is>
+      </c>
+      <c r="E969" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="F969" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="G969" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H969" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="I969" t="n">
+        <v>334800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5273.xlsx
+++ b/data/5273.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I969"/>
+  <dimension ref="A1:I970"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34313,6 +34313,41 @@
         <v>334800</v>
       </c>
     </row>
+    <row r="970">
+      <c r="A970" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B970" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C970" t="inlineStr">
+        <is>
+          <t>5273</t>
+        </is>
+      </c>
+      <c r="D970" t="inlineStr">
+        <is>
+          <t>CHINHIN</t>
+        </is>
+      </c>
+      <c r="E970" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="F970" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="G970" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H970" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="I970" t="n">
+        <v>321200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5273.xlsx
+++ b/data/5273.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I970"/>
+  <dimension ref="A1:I971"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34348,6 +34348,41 @@
         <v>321200</v>
       </c>
     </row>
+    <row r="971">
+      <c r="A971" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B971" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C971" t="inlineStr">
+        <is>
+          <t>5273</t>
+        </is>
+      </c>
+      <c r="D971" t="inlineStr">
+        <is>
+          <t>CHINHIN</t>
+        </is>
+      </c>
+      <c r="E971" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="F971" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="G971" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H971" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="I971" t="n">
+        <v>181600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5273.xlsx
+++ b/data/5273.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I971"/>
+  <dimension ref="A1:I972"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34383,6 +34383,41 @@
         <v>181600</v>
       </c>
     </row>
+    <row r="972">
+      <c r="A972" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B972" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C972" t="inlineStr">
+        <is>
+          <t>5273</t>
+        </is>
+      </c>
+      <c r="D972" t="inlineStr">
+        <is>
+          <t>CHINHIN</t>
+        </is>
+      </c>
+      <c r="E972" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="F972" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="G972" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H972" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="I972" t="n">
+        <v>407700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5273.xlsx
+++ b/data/5273.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I972"/>
+  <dimension ref="A1:I973"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34418,6 +34418,41 @@
         <v>407700</v>
       </c>
     </row>
+    <row r="973">
+      <c r="A973" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B973" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C973" t="inlineStr">
+        <is>
+          <t>5273</t>
+        </is>
+      </c>
+      <c r="D973" t="inlineStr">
+        <is>
+          <t>CHINHIN</t>
+        </is>
+      </c>
+      <c r="E973" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="F973" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="G973" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="H973" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I973" t="n">
+        <v>2421200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5273.xlsx
+++ b/data/5273.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I973"/>
+  <dimension ref="A1:I975"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34453,6 +34453,76 @@
         <v>2421200</v>
       </c>
     </row>
+    <row r="974">
+      <c r="A974" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B974" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C974" t="inlineStr">
+        <is>
+          <t>5273</t>
+        </is>
+      </c>
+      <c r="D974" t="inlineStr">
+        <is>
+          <t>CHINHIN</t>
+        </is>
+      </c>
+      <c r="E974" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F974" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G974" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="H974" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="I974" t="n">
+        <v>639700</v>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B975" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C975" t="inlineStr">
+        <is>
+          <t>5273</t>
+        </is>
+      </c>
+      <c r="D975" t="inlineStr">
+        <is>
+          <t>CHINHIN</t>
+        </is>
+      </c>
+      <c r="E975" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F975" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="G975" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H975" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="I975" t="n">
+        <v>4410800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5273.xlsx
+++ b/data/5273.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I975"/>
+  <dimension ref="A1:I976"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34523,6 +34523,41 @@
         <v>4410800</v>
       </c>
     </row>
+    <row r="976">
+      <c r="A976" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B976" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C976" t="inlineStr">
+        <is>
+          <t>5273</t>
+        </is>
+      </c>
+      <c r="D976" t="inlineStr">
+        <is>
+          <t>CHINHIN</t>
+        </is>
+      </c>
+      <c r="E976" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F976" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="G976" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H976" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="I976" t="n">
+        <v>5066700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5273.xlsx
+++ b/data/5273.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I976"/>
+  <dimension ref="A1:I977"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34558,6 +34558,41 @@
         <v>5066700</v>
       </c>
     </row>
+    <row r="977">
+      <c r="A977" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B977" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C977" t="inlineStr">
+        <is>
+          <t>5273</t>
+        </is>
+      </c>
+      <c r="D977" t="inlineStr">
+        <is>
+          <t>CHINHIN</t>
+        </is>
+      </c>
+      <c r="E977" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F977" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G977" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H977" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="I977" t="n">
+        <v>4867400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5273.xlsx
+++ b/data/5273.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I977"/>
+  <dimension ref="A1:I986"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32040,11 +32040,11 @@
     </row>
     <row r="905">
       <c r="A905" t="n">
-        <v>1574985600</v>
+        <v>1574035200</v>
       </c>
       <c r="B905" t="inlineStr">
         <is>
-          <t>2019-11-29</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="C905" t="inlineStr">
@@ -32058,28 +32058,28 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>0.795</v>
+        <v>0.895</v>
       </c>
       <c r="F905" t="n">
-        <v>0.795</v>
+        <v>0.915</v>
       </c>
       <c r="G905" t="n">
-        <v>0.76</v>
+        <v>0.875</v>
       </c>
       <c r="H905" t="n">
-        <v>0.775</v>
+        <v>0.875</v>
       </c>
       <c r="I905" t="n">
-        <v>1683900</v>
+        <v>2206300</v>
       </c>
     </row>
     <row r="906">
       <c r="A906" t="n">
-        <v>1575244800</v>
+        <v>1574121600</v>
       </c>
       <c r="B906" t="inlineStr">
         <is>
-          <t>2019-12-02</t>
+          <t>2019-11-19</t>
         </is>
       </c>
       <c r="C906" t="inlineStr">
@@ -32093,28 +32093,28 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>0.77</v>
+        <v>0.875</v>
       </c>
       <c r="F906" t="n">
-        <v>0.79</v>
+        <v>0.905</v>
       </c>
       <c r="G906" t="n">
-        <v>0.765</v>
+        <v>0.87</v>
       </c>
       <c r="H906" t="n">
-        <v>0.78</v>
+        <v>0.885</v>
       </c>
       <c r="I906" t="n">
-        <v>561100</v>
+        <v>859400</v>
       </c>
     </row>
     <row r="907">
       <c r="A907" t="n">
-        <v>1575331200</v>
+        <v>1574208000</v>
       </c>
       <c r="B907" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="C907" t="inlineStr">
@@ -32128,28 +32128,28 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>0.775</v>
+        <v>0.885</v>
       </c>
       <c r="F907" t="n">
-        <v>0.775</v>
+        <v>0.89</v>
       </c>
       <c r="G907" t="n">
-        <v>0.76</v>
+        <v>0.88</v>
       </c>
       <c r="H907" t="n">
-        <v>0.765</v>
+        <v>0.885</v>
       </c>
       <c r="I907" t="n">
-        <v>583900</v>
+        <v>417000</v>
       </c>
     </row>
     <row r="908">
       <c r="A908" t="n">
-        <v>1575417600</v>
+        <v>1574294400</v>
       </c>
       <c r="B908" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="C908" t="inlineStr">
@@ -32163,28 +32163,28 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>0.765</v>
+        <v>0.89</v>
       </c>
       <c r="F908" t="n">
-        <v>0.765</v>
+        <v>0.905</v>
       </c>
       <c r="G908" t="n">
-        <v>0.75</v>
+        <v>0.87</v>
       </c>
       <c r="H908" t="n">
-        <v>0.76</v>
+        <v>0.895</v>
       </c>
       <c r="I908" t="n">
-        <v>813000</v>
+        <v>1444900</v>
       </c>
     </row>
     <row r="909">
       <c r="A909" t="n">
-        <v>1575504000</v>
+        <v>1574380800</v>
       </c>
       <c r="B909" t="inlineStr">
         <is>
-          <t>2019-12-05</t>
+          <t>2019-11-22</t>
         </is>
       </c>
       <c r="C909" t="inlineStr">
@@ -32198,28 +32198,28 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>0.755</v>
+        <v>0.9</v>
       </c>
       <c r="F909" t="n">
-        <v>0.77</v>
+        <v>0.92</v>
       </c>
       <c r="G909" t="n">
-        <v>0.75</v>
+        <v>0.895</v>
       </c>
       <c r="H909" t="n">
-        <v>0.755</v>
+        <v>0.905</v>
       </c>
       <c r="I909" t="n">
-        <v>531100</v>
+        <v>3186000</v>
       </c>
     </row>
     <row r="910">
       <c r="A910" t="n">
-        <v>1575590400</v>
+        <v>1574640000</v>
       </c>
       <c r="B910" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-11-25</t>
         </is>
       </c>
       <c r="C910" t="inlineStr">
@@ -32233,28 +32233,28 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>0.76</v>
+        <v>0.91</v>
       </c>
       <c r="F910" t="n">
-        <v>0.76</v>
+        <v>0.915</v>
       </c>
       <c r="G910" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="H910" t="n">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
       <c r="I910" t="n">
-        <v>335500</v>
+        <v>3123300</v>
       </c>
     </row>
     <row r="911">
       <c r="A911" t="n">
-        <v>1575849600</v>
+        <v>1574726400</v>
       </c>
       <c r="B911" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-11-26</t>
         </is>
       </c>
       <c r="C911" t="inlineStr">
@@ -32268,28 +32268,28 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>0.755</v>
+        <v>0.91</v>
       </c>
       <c r="F911" t="n">
-        <v>0.76</v>
+        <v>0.92</v>
       </c>
       <c r="G911" t="n">
-        <v>0.745</v>
+        <v>0.82</v>
       </c>
       <c r="H911" t="n">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="I911" t="n">
-        <v>865100</v>
+        <v>6263900</v>
       </c>
     </row>
     <row r="912">
       <c r="A912" t="n">
-        <v>1575936000</v>
+        <v>1574812800</v>
       </c>
       <c r="B912" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-11-27</t>
         </is>
       </c>
       <c r="C912" t="inlineStr">
@@ -32303,28 +32303,28 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>0.75</v>
+        <v>0.82</v>
       </c>
       <c r="F912" t="n">
-        <v>0.755</v>
+        <v>0.835</v>
       </c>
       <c r="G912" t="n">
-        <v>0.74</v>
+        <v>0.795</v>
       </c>
       <c r="H912" t="n">
-        <v>0.755</v>
+        <v>0.8</v>
       </c>
       <c r="I912" t="n">
-        <v>749900</v>
+        <v>1485000</v>
       </c>
     </row>
     <row r="913">
       <c r="A913" t="n">
-        <v>1576022400</v>
+        <v>1574899200</v>
       </c>
       <c r="B913" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="C913" t="inlineStr">
@@ -32338,28 +32338,28 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>0.755</v>
+        <v>0.8</v>
       </c>
       <c r="F913" t="n">
-        <v>0.755</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="G913" t="n">
-        <v>0.735</v>
+        <v>0.795</v>
       </c>
       <c r="H913" t="n">
-        <v>0.735</v>
+        <v>0.8</v>
       </c>
       <c r="I913" t="n">
-        <v>1479800</v>
+        <v>1373500</v>
       </c>
     </row>
     <row r="914">
       <c r="A914" t="n">
-        <v>1576108800</v>
+        <v>1574985600</v>
       </c>
       <c r="B914" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-11-29</t>
         </is>
       </c>
       <c r="C914" t="inlineStr">
@@ -32373,28 +32373,28 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>0.74</v>
+        <v>0.795</v>
       </c>
       <c r="F914" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="G914" t="n">
         <v>0.76</v>
       </c>
-      <c r="G914" t="n">
-        <v>0.735</v>
-      </c>
       <c r="H914" t="n">
-        <v>0.735</v>
+        <v>0.775</v>
       </c>
       <c r="I914" t="n">
-        <v>1146800</v>
+        <v>1683900</v>
       </c>
     </row>
     <row r="915">
       <c r="A915" t="n">
-        <v>1576195200</v>
+        <v>1575244800</v>
       </c>
       <c r="B915" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-02</t>
         </is>
       </c>
       <c r="C915" t="inlineStr">
@@ -32408,28 +32408,28 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>0.74</v>
+        <v>0.77</v>
       </c>
       <c r="F915" t="n">
-        <v>0.74</v>
+        <v>0.79</v>
       </c>
       <c r="G915" t="n">
-        <v>0.73</v>
+        <v>0.765</v>
       </c>
       <c r="H915" t="n">
-        <v>0.74</v>
+        <v>0.78</v>
       </c>
       <c r="I915" t="n">
-        <v>418800</v>
+        <v>561100</v>
       </c>
     </row>
     <row r="916">
       <c r="A916" t="n">
-        <v>1576454400</v>
+        <v>1575331200</v>
       </c>
       <c r="B916" t="inlineStr">
         <is>
-          <t>2019-12-16</t>
+          <t>2019-12-03</t>
         </is>
       </c>
       <c r="C916" t="inlineStr">
@@ -32443,28 +32443,28 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>0.74</v>
+        <v>0.775</v>
       </c>
       <c r="F916" t="n">
-        <v>0.74</v>
+        <v>0.775</v>
       </c>
       <c r="G916" t="n">
-        <v>0.735</v>
+        <v>0.76</v>
       </c>
       <c r="H916" t="n">
-        <v>0.74</v>
+        <v>0.765</v>
       </c>
       <c r="I916" t="n">
-        <v>290500</v>
+        <v>583900</v>
       </c>
     </row>
     <row r="917">
       <c r="A917" t="n">
-        <v>1576540800</v>
+        <v>1575417600</v>
       </c>
       <c r="B917" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="C917" t="inlineStr">
@@ -32478,28 +32478,28 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>0.735</v>
+        <v>0.765</v>
       </c>
       <c r="F917" t="n">
-        <v>0.74</v>
+        <v>0.765</v>
       </c>
       <c r="G917" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="H917" t="n">
-        <v>0.735</v>
+        <v>0.76</v>
       </c>
       <c r="I917" t="n">
-        <v>498000</v>
+        <v>813000</v>
       </c>
     </row>
     <row r="918">
       <c r="A918" t="n">
-        <v>1576627200</v>
+        <v>1575504000</v>
       </c>
       <c r="B918" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-05</t>
         </is>
       </c>
       <c r="C918" t="inlineStr">
@@ -32513,28 +32513,28 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>0.735</v>
+        <v>0.755</v>
       </c>
       <c r="F918" t="n">
-        <v>0.74</v>
+        <v>0.77</v>
       </c>
       <c r="G918" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="H918" t="n">
-        <v>0.735</v>
+        <v>0.755</v>
       </c>
       <c r="I918" t="n">
-        <v>494900</v>
+        <v>531100</v>
       </c>
     </row>
     <row r="919">
       <c r="A919" t="n">
-        <v>1576713600</v>
+        <v>1575590400</v>
       </c>
       <c r="B919" t="inlineStr">
         <is>
-          <t>2019-12-19</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="C919" t="inlineStr">
@@ -32548,28 +32548,28 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
       <c r="F919" t="n">
-        <v>0.755</v>
+        <v>0.76</v>
       </c>
       <c r="G919" t="n">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
       <c r="H919" t="n">
         <v>0.75</v>
       </c>
       <c r="I919" t="n">
-        <v>1165400</v>
+        <v>335500</v>
       </c>
     </row>
     <row r="920">
       <c r="A920" t="n">
-        <v>1576800000</v>
+        <v>1575849600</v>
       </c>
       <c r="B920" t="inlineStr">
         <is>
-          <t>2019-12-20</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="C920" t="inlineStr">
@@ -32583,7 +32583,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>0.75</v>
+        <v>0.755</v>
       </c>
       <c r="F920" t="n">
         <v>0.76</v>
@@ -32592,19 +32592,19 @@
         <v>0.745</v>
       </c>
       <c r="H920" t="n">
-        <v>0.755</v>
+        <v>0.75</v>
       </c>
       <c r="I920" t="n">
-        <v>944600</v>
+        <v>865100</v>
       </c>
     </row>
     <row r="921">
       <c r="A921" t="n">
-        <v>1577059200</v>
+        <v>1575936000</v>
       </c>
       <c r="B921" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="C921" t="inlineStr">
@@ -32618,28 +32618,28 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>0.755</v>
+        <v>0.75</v>
       </c>
       <c r="F921" t="n">
         <v>0.755</v>
       </c>
       <c r="G921" t="n">
-        <v>0.745</v>
+        <v>0.74</v>
       </c>
       <c r="H921" t="n">
         <v>0.755</v>
       </c>
       <c r="I921" t="n">
-        <v>481000</v>
+        <v>749900</v>
       </c>
     </row>
     <row r="922">
       <c r="A922" t="n">
-        <v>1577145600</v>
+        <v>1576022400</v>
       </c>
       <c r="B922" t="inlineStr">
         <is>
-          <t>2019-12-24</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="C922" t="inlineStr">
@@ -32662,19 +32662,19 @@
         <v>0.735</v>
       </c>
       <c r="H922" t="n">
-        <v>0.745</v>
+        <v>0.735</v>
       </c>
       <c r="I922" t="n">
-        <v>772100</v>
+        <v>1479800</v>
       </c>
     </row>
     <row r="923">
       <c r="A923" t="n">
-        <v>1577318400</v>
+        <v>1576108800</v>
       </c>
       <c r="B923" t="inlineStr">
         <is>
-          <t>2019-12-26</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="C923" t="inlineStr">
@@ -32688,28 +32688,28 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>0.745</v>
+        <v>0.74</v>
       </c>
       <c r="F923" t="n">
-        <v>0.755</v>
+        <v>0.76</v>
       </c>
       <c r="G923" t="n">
-        <v>0.745</v>
+        <v>0.735</v>
       </c>
       <c r="H923" t="n">
-        <v>0.745</v>
+        <v>0.735</v>
       </c>
       <c r="I923" t="n">
-        <v>364700</v>
+        <v>1146800</v>
       </c>
     </row>
     <row r="924">
       <c r="A924" t="n">
-        <v>1577404800</v>
+        <v>1576195200</v>
       </c>
       <c r="B924" t="inlineStr">
         <is>
-          <t>2019-12-27</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="C924" t="inlineStr">
@@ -32723,10 +32723,10 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>0.745</v>
+        <v>0.74</v>
       </c>
       <c r="F924" t="n">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="G924" t="n">
         <v>0.73</v>
@@ -32735,16 +32735,16 @@
         <v>0.74</v>
       </c>
       <c r="I924" t="n">
-        <v>494300</v>
+        <v>418800</v>
       </c>
     </row>
     <row r="925">
       <c r="A925" t="n">
-        <v>1577664000</v>
+        <v>1576454400</v>
       </c>
       <c r="B925" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2019-12-16</t>
         </is>
       </c>
       <c r="C925" t="inlineStr">
@@ -32758,28 +32758,28 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>0.735</v>
+        <v>0.74</v>
       </c>
       <c r="F925" t="n">
         <v>0.74</v>
       </c>
       <c r="G925" t="n">
-        <v>0.73</v>
+        <v>0.735</v>
       </c>
       <c r="H925" t="n">
-        <v>0.735</v>
+        <v>0.74</v>
       </c>
       <c r="I925" t="n">
-        <v>501500</v>
+        <v>290500</v>
       </c>
     </row>
     <row r="926">
       <c r="A926" t="n">
-        <v>1577750400</v>
+        <v>1576540800</v>
       </c>
       <c r="B926" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="C926" t="inlineStr">
@@ -32796,25 +32796,25 @@
         <v>0.735</v>
       </c>
       <c r="F926" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="G926" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="H926" t="n">
         <v>0.735</v>
       </c>
-      <c r="G926" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="H926" t="n">
-        <v>0.72</v>
-      </c>
       <c r="I926" t="n">
-        <v>273700</v>
+        <v>498000</v>
       </c>
     </row>
     <row r="927">
       <c r="A927" t="n">
-        <v>1577923200</v>
+        <v>1576627200</v>
       </c>
       <c r="B927" t="inlineStr">
         <is>
-          <t>2020-01-02</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="C927" t="inlineStr">
@@ -32828,28 +32828,28 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>0.72</v>
+        <v>0.735</v>
       </c>
       <c r="F927" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="G927" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="H927" t="n">
         <v>0.735</v>
       </c>
-      <c r="G927" t="n">
-        <v>0.715</v>
-      </c>
-      <c r="H927" t="n">
-        <v>0.72</v>
-      </c>
       <c r="I927" t="n">
-        <v>830000</v>
+        <v>494900</v>
       </c>
     </row>
     <row r="928">
       <c r="A928" t="n">
-        <v>1578009600</v>
+        <v>1576713600</v>
       </c>
       <c r="B928" t="inlineStr">
         <is>
-          <t>2020-01-03</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="C928" t="inlineStr">
@@ -32863,28 +32863,28 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="F928" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="G928" t="n">
         <v>0.74</v>
       </c>
-      <c r="G928" t="n">
-        <v>0.72</v>
-      </c>
       <c r="H928" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="I928" t="n">
-        <v>3932300</v>
+        <v>1165400</v>
       </c>
     </row>
     <row r="929">
       <c r="A929" t="n">
-        <v>1578268800</v>
+        <v>1576800000</v>
       </c>
       <c r="B929" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2019-12-20</t>
         </is>
       </c>
       <c r="C929" t="inlineStr">
@@ -32898,28 +32898,28 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="F929" t="n">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
       <c r="G929" t="n">
-        <v>0.715</v>
+        <v>0.745</v>
       </c>
       <c r="H929" t="n">
-        <v>0.715</v>
+        <v>0.755</v>
       </c>
       <c r="I929" t="n">
-        <v>941300</v>
+        <v>944600</v>
       </c>
     </row>
     <row r="930">
       <c r="A930" t="n">
-        <v>1578355200</v>
+        <v>1577059200</v>
       </c>
       <c r="B930" t="inlineStr">
         <is>
-          <t>2020-01-07</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="C930" t="inlineStr">
@@ -32933,28 +32933,28 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>0.725</v>
+        <v>0.755</v>
       </c>
       <c r="F930" t="n">
-        <v>0.73</v>
+        <v>0.755</v>
       </c>
       <c r="G930" t="n">
-        <v>0.7</v>
+        <v>0.745</v>
       </c>
       <c r="H930" t="n">
-        <v>0.705</v>
+        <v>0.755</v>
       </c>
       <c r="I930" t="n">
-        <v>1020900</v>
+        <v>481000</v>
       </c>
     </row>
     <row r="931">
       <c r="A931" t="n">
-        <v>1578441600</v>
+        <v>1577145600</v>
       </c>
       <c r="B931" t="inlineStr">
         <is>
-          <t>2020-01-08</t>
+          <t>2019-12-24</t>
         </is>
       </c>
       <c r="C931" t="inlineStr">
@@ -32968,28 +32968,28 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>0.705</v>
+        <v>0.755</v>
       </c>
       <c r="F931" t="n">
-        <v>0.705</v>
+        <v>0.755</v>
       </c>
       <c r="G931" t="n">
-        <v>0.66</v>
+        <v>0.735</v>
       </c>
       <c r="H931" t="n">
-        <v>0.67</v>
+        <v>0.745</v>
       </c>
       <c r="I931" t="n">
-        <v>1756100</v>
+        <v>772100</v>
       </c>
     </row>
     <row r="932">
       <c r="A932" t="n">
-        <v>1578528000</v>
+        <v>1577318400</v>
       </c>
       <c r="B932" t="inlineStr">
         <is>
-          <t>2020-01-09</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="C932" t="inlineStr">
@@ -33003,28 +33003,28 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>0.68</v>
+        <v>0.745</v>
       </c>
       <c r="F932" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.755</v>
       </c>
       <c r="G932" t="n">
-        <v>0.675</v>
+        <v>0.745</v>
       </c>
       <c r="H932" t="n">
-        <v>0.68</v>
+        <v>0.745</v>
       </c>
       <c r="I932" t="n">
-        <v>520800</v>
+        <v>364700</v>
       </c>
     </row>
     <row r="933">
       <c r="A933" t="n">
-        <v>1578614400</v>
+        <v>1577404800</v>
       </c>
       <c r="B933" t="inlineStr">
         <is>
-          <t>2020-01-10</t>
+          <t>2019-12-27</t>
         </is>
       </c>
       <c r="C933" t="inlineStr">
@@ -33038,28 +33038,28 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.745</v>
       </c>
       <c r="F933" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="G933" t="n">
-        <v>0.675</v>
+        <v>0.73</v>
       </c>
       <c r="H933" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="I933" t="n">
-        <v>242700</v>
+        <v>494300</v>
       </c>
     </row>
     <row r="934">
       <c r="A934" t="n">
-        <v>1578873600</v>
+        <v>1577664000</v>
       </c>
       <c r="B934" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2019-12-30</t>
         </is>
       </c>
       <c r="C934" t="inlineStr">
@@ -33073,28 +33073,28 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.735</v>
       </c>
       <c r="F934" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="G934" t="n">
-        <v>0.67</v>
+        <v>0.73</v>
       </c>
       <c r="H934" t="n">
-        <v>0.68</v>
+        <v>0.735</v>
       </c>
       <c r="I934" t="n">
-        <v>96300</v>
+        <v>501500</v>
       </c>
     </row>
     <row r="935">
       <c r="A935" t="n">
-        <v>1578960000</v>
+        <v>1577750400</v>
       </c>
       <c r="B935" t="inlineStr">
         <is>
-          <t>2020-01-14</t>
+          <t>2019-12-31</t>
         </is>
       </c>
       <c r="C935" t="inlineStr">
@@ -33108,28 +33108,28 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>0.68</v>
+        <v>0.735</v>
       </c>
       <c r="F935" t="n">
-        <v>0.68</v>
+        <v>0.735</v>
       </c>
       <c r="G935" t="n">
-        <v>0.67</v>
+        <v>0.72</v>
       </c>
       <c r="H935" t="n">
-        <v>0.67</v>
+        <v>0.72</v>
       </c>
       <c r="I935" t="n">
-        <v>234800</v>
+        <v>273700</v>
       </c>
     </row>
     <row r="936">
       <c r="A936" t="n">
-        <v>1579046400</v>
+        <v>1577923200</v>
       </c>
       <c r="B936" t="inlineStr">
         <is>
-          <t>2020-01-15</t>
+          <t>2020-01-02</t>
         </is>
       </c>
       <c r="C936" t="inlineStr">
@@ -33143,28 +33143,28 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>0.675</v>
+        <v>0.72</v>
       </c>
       <c r="F936" t="n">
-        <v>0.675</v>
+        <v>0.735</v>
       </c>
       <c r="G936" t="n">
-        <v>0.665</v>
+        <v>0.715</v>
       </c>
       <c r="H936" t="n">
-        <v>0.675</v>
+        <v>0.72</v>
       </c>
       <c r="I936" t="n">
-        <v>153000</v>
+        <v>830000</v>
       </c>
     </row>
     <row r="937">
       <c r="A937" t="n">
-        <v>1579132800</v>
+        <v>1578009600</v>
       </c>
       <c r="B937" t="inlineStr">
         <is>
-          <t>2020-01-16</t>
+          <t>2020-01-03</t>
         </is>
       </c>
       <c r="C937" t="inlineStr">
@@ -33178,28 +33178,28 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>0.675</v>
+        <v>0.72</v>
       </c>
       <c r="F937" t="n">
-        <v>0.675</v>
+        <v>0.74</v>
       </c>
       <c r="G937" t="n">
-        <v>0.665</v>
+        <v>0.72</v>
       </c>
       <c r="H937" t="n">
-        <v>0.665</v>
+        <v>0.73</v>
       </c>
       <c r="I937" t="n">
-        <v>155000</v>
+        <v>3932300</v>
       </c>
     </row>
     <row r="938">
       <c r="A938" t="n">
-        <v>1579219200</v>
+        <v>1578268800</v>
       </c>
       <c r="B938" t="inlineStr">
         <is>
-          <t>2020-01-17</t>
+          <t>2020-01-06</t>
         </is>
       </c>
       <c r="C938" t="inlineStr">
@@ -33213,28 +33213,28 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>0.675</v>
+        <v>0.73</v>
       </c>
       <c r="F938" t="n">
-        <v>0.675</v>
+        <v>0.74</v>
       </c>
       <c r="G938" t="n">
-        <v>0.665</v>
+        <v>0.715</v>
       </c>
       <c r="H938" t="n">
-        <v>0.67</v>
+        <v>0.715</v>
       </c>
       <c r="I938" t="n">
-        <v>230400</v>
+        <v>941300</v>
       </c>
     </row>
     <row r="939">
       <c r="A939" t="n">
-        <v>1579478400</v>
+        <v>1578355200</v>
       </c>
       <c r="B939" t="inlineStr">
         <is>
-          <t>2020-01-20</t>
+          <t>2020-01-07</t>
         </is>
       </c>
       <c r="C939" t="inlineStr">
@@ -33248,28 +33248,28 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>0.67</v>
+        <v>0.725</v>
       </c>
       <c r="F939" t="n">
-        <v>0.67</v>
+        <v>0.73</v>
       </c>
       <c r="G939" t="n">
-        <v>0.645</v>
+        <v>0.7</v>
       </c>
       <c r="H939" t="n">
-        <v>0.645</v>
+        <v>0.705</v>
       </c>
       <c r="I939" t="n">
-        <v>914200</v>
+        <v>1020900</v>
       </c>
     </row>
     <row r="940">
       <c r="A940" t="n">
-        <v>1579564800</v>
+        <v>1578441600</v>
       </c>
       <c r="B940" t="inlineStr">
         <is>
-          <t>2020-01-21</t>
+          <t>2020-01-08</t>
         </is>
       </c>
       <c r="C940" t="inlineStr">
@@ -33283,28 +33283,28 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>0.65</v>
+        <v>0.705</v>
       </c>
       <c r="F940" t="n">
-        <v>0.65</v>
+        <v>0.705</v>
       </c>
       <c r="G940" t="n">
-        <v>0.625</v>
+        <v>0.66</v>
       </c>
       <c r="H940" t="n">
-        <v>0.635</v>
+        <v>0.67</v>
       </c>
       <c r="I940" t="n">
-        <v>1094600</v>
+        <v>1756100</v>
       </c>
     </row>
     <row r="941">
       <c r="A941" t="n">
-        <v>1579651200</v>
+        <v>1578528000</v>
       </c>
       <c r="B941" t="inlineStr">
         <is>
-          <t>2020-01-22</t>
+          <t>2020-01-09</t>
         </is>
       </c>
       <c r="C941" t="inlineStr">
@@ -33318,28 +33318,28 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>0.635</v>
+        <v>0.68</v>
       </c>
       <c r="F941" t="n">
-        <v>0.64</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G941" t="n">
-        <v>0.62</v>
+        <v>0.675</v>
       </c>
       <c r="H941" t="n">
-        <v>0.625</v>
+        <v>0.68</v>
       </c>
       <c r="I941" t="n">
-        <v>513900</v>
+        <v>520800</v>
       </c>
     </row>
     <row r="942">
       <c r="A942" t="n">
-        <v>1579737600</v>
+        <v>1578614400</v>
       </c>
       <c r="B942" t="inlineStr">
         <is>
-          <t>2020-01-23</t>
+          <t>2020-01-10</t>
         </is>
       </c>
       <c r="C942" t="inlineStr">
@@ -33353,28 +33353,28 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>0.62</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F942" t="n">
-        <v>0.635</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G942" t="n">
-        <v>0.615</v>
+        <v>0.675</v>
       </c>
       <c r="H942" t="n">
-        <v>0.615</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="I942" t="n">
-        <v>810000</v>
+        <v>242700</v>
       </c>
     </row>
     <row r="943">
       <c r="A943" t="n">
-        <v>1579824000</v>
+        <v>1578873600</v>
       </c>
       <c r="B943" t="inlineStr">
         <is>
-          <t>2020-01-24</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="C943" t="inlineStr">
@@ -33388,28 +33388,28 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>0.62</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="F943" t="n">
-        <v>0.62</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="G943" t="n">
-        <v>0.605</v>
+        <v>0.67</v>
       </c>
       <c r="H943" t="n">
-        <v>0.615</v>
+        <v>0.68</v>
       </c>
       <c r="I943" t="n">
-        <v>141300</v>
+        <v>96300</v>
       </c>
     </row>
     <row r="944">
       <c r="A944" t="n">
-        <v>1580169600</v>
+        <v>1578960000</v>
       </c>
       <c r="B944" t="inlineStr">
         <is>
-          <t>2020-01-28</t>
+          <t>2020-01-14</t>
         </is>
       </c>
       <c r="C944" t="inlineStr">
@@ -33423,28 +33423,28 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>0.605</v>
+        <v>0.68</v>
       </c>
       <c r="F944" t="n">
-        <v>0.605</v>
+        <v>0.68</v>
       </c>
       <c r="G944" t="n">
-        <v>0.595</v>
+        <v>0.67</v>
       </c>
       <c r="H944" t="n">
-        <v>0.595</v>
+        <v>0.67</v>
       </c>
       <c r="I944" t="n">
-        <v>347500</v>
+        <v>234800</v>
       </c>
     </row>
     <row r="945">
       <c r="A945" t="n">
-        <v>1580256000</v>
+        <v>1579046400</v>
       </c>
       <c r="B945" t="inlineStr">
         <is>
-          <t>2020-01-29</t>
+          <t>2020-01-15</t>
         </is>
       </c>
       <c r="C945" t="inlineStr">
@@ -33458,28 +33458,28 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>0.59</v>
+        <v>0.675</v>
       </c>
       <c r="F945" t="n">
-        <v>0.59</v>
+        <v>0.675</v>
       </c>
       <c r="G945" t="n">
-        <v>0.575</v>
+        <v>0.665</v>
       </c>
       <c r="H945" t="n">
-        <v>0.58</v>
+        <v>0.675</v>
       </c>
       <c r="I945" t="n">
-        <v>850800</v>
+        <v>153000</v>
       </c>
     </row>
     <row r="946">
       <c r="A946" t="n">
-        <v>1580342400</v>
+        <v>1579132800</v>
       </c>
       <c r="B946" t="inlineStr">
         <is>
-          <t>2020-01-30</t>
+          <t>2020-01-16</t>
         </is>
       </c>
       <c r="C946" t="inlineStr">
@@ -33493,28 +33493,28 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>0.585</v>
+        <v>0.675</v>
       </c>
       <c r="F946" t="n">
-        <v>0.585</v>
+        <v>0.675</v>
       </c>
       <c r="G946" t="n">
-        <v>0.58</v>
+        <v>0.665</v>
       </c>
       <c r="H946" t="n">
-        <v>0.58</v>
+        <v>0.665</v>
       </c>
       <c r="I946" t="n">
-        <v>2141800</v>
+        <v>155000</v>
       </c>
     </row>
     <row r="947">
       <c r="A947" t="n">
-        <v>1580428800</v>
+        <v>1579219200</v>
       </c>
       <c r="B947" t="inlineStr">
         <is>
-          <t>2020-01-31</t>
+          <t>2020-01-17</t>
         </is>
       </c>
       <c r="C947" t="inlineStr">
@@ -33528,28 +33528,28 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>0.58</v>
+        <v>0.675</v>
       </c>
       <c r="F947" t="n">
-        <v>0.58</v>
+        <v>0.675</v>
       </c>
       <c r="G947" t="n">
-        <v>0.57</v>
+        <v>0.665</v>
       </c>
       <c r="H947" t="n">
-        <v>0.57</v>
+        <v>0.67</v>
       </c>
       <c r="I947" t="n">
-        <v>2093600</v>
+        <v>230400</v>
       </c>
     </row>
     <row r="948">
       <c r="A948" t="n">
-        <v>1580688000</v>
+        <v>1579478400</v>
       </c>
       <c r="B948" t="inlineStr">
         <is>
-          <t>2020-02-03</t>
+          <t>2020-01-20</t>
         </is>
       </c>
       <c r="C948" t="inlineStr">
@@ -33563,28 +33563,28 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>0.57</v>
+        <v>0.67</v>
       </c>
       <c r="F948" t="n">
-        <v>0.57</v>
+        <v>0.67</v>
       </c>
       <c r="G948" t="n">
-        <v>0.555</v>
+        <v>0.645</v>
       </c>
       <c r="H948" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.645</v>
       </c>
       <c r="I948" t="n">
-        <v>633500</v>
+        <v>914200</v>
       </c>
     </row>
     <row r="949">
       <c r="A949" t="n">
-        <v>1580774400</v>
+        <v>1579564800</v>
       </c>
       <c r="B949" t="inlineStr">
         <is>
-          <t>2020-02-04</t>
+          <t>2020-01-21</t>
         </is>
       </c>
       <c r="C949" t="inlineStr">
@@ -33598,28 +33598,28 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.65</v>
       </c>
       <c r="F949" t="n">
-        <v>0.59</v>
+        <v>0.65</v>
       </c>
       <c r="G949" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.625</v>
       </c>
       <c r="H949" t="n">
-        <v>0.58</v>
+        <v>0.635</v>
       </c>
       <c r="I949" t="n">
-        <v>944300</v>
+        <v>1094600</v>
       </c>
     </row>
     <row r="950">
       <c r="A950" t="n">
-        <v>1580860800</v>
+        <v>1579651200</v>
       </c>
       <c r="B950" t="inlineStr">
         <is>
-          <t>2020-02-05</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="C950" t="inlineStr">
@@ -33633,28 +33633,28 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>0.585</v>
+        <v>0.635</v>
       </c>
       <c r="F950" t="n">
-        <v>0.605</v>
+        <v>0.64</v>
       </c>
       <c r="G950" t="n">
-        <v>0.585</v>
+        <v>0.62</v>
       </c>
       <c r="H950" t="n">
-        <v>0.59</v>
+        <v>0.625</v>
       </c>
       <c r="I950" t="n">
-        <v>562100</v>
+        <v>513900</v>
       </c>
     </row>
     <row r="951">
       <c r="A951" t="n">
-        <v>1580947200</v>
+        <v>1579737600</v>
       </c>
       <c r="B951" t="inlineStr">
         <is>
-          <t>2020-02-06</t>
+          <t>2020-01-23</t>
         </is>
       </c>
       <c r="C951" t="inlineStr">
@@ -33668,28 +33668,28 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>0.585</v>
+        <v>0.62</v>
       </c>
       <c r="F951" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="G951" t="n">
         <v>0.615</v>
       </c>
-      <c r="G951" t="n">
-        <v>0.585</v>
-      </c>
       <c r="H951" t="n">
-        <v>0.6</v>
+        <v>0.615</v>
       </c>
       <c r="I951" t="n">
-        <v>2185200</v>
+        <v>810000</v>
       </c>
     </row>
     <row r="952">
       <c r="A952" t="n">
-        <v>1581033600</v>
+        <v>1579824000</v>
       </c>
       <c r="B952" t="inlineStr">
         <is>
-          <t>2020-02-07</t>
+          <t>2020-01-24</t>
         </is>
       </c>
       <c r="C952" t="inlineStr">
@@ -33703,28 +33703,28 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>0.61</v>
+        <v>0.62</v>
       </c>
       <c r="F952" t="n">
-        <v>0.625</v>
+        <v>0.62</v>
       </c>
       <c r="G952" t="n">
-        <v>0.61</v>
+        <v>0.605</v>
       </c>
       <c r="H952" t="n">
-        <v>0.61</v>
+        <v>0.615</v>
       </c>
       <c r="I952" t="n">
-        <v>3331600</v>
+        <v>141300</v>
       </c>
     </row>
     <row r="953">
       <c r="A953" t="n">
-        <v>1581292800</v>
+        <v>1580169600</v>
       </c>
       <c r="B953" t="inlineStr">
         <is>
-          <t>2020-02-10</t>
+          <t>2020-01-28</t>
         </is>
       </c>
       <c r="C953" t="inlineStr">
@@ -33741,25 +33741,25 @@
         <v>0.605</v>
       </c>
       <c r="F953" t="n">
-        <v>0.625</v>
+        <v>0.605</v>
       </c>
       <c r="G953" t="n">
-        <v>0.585</v>
+        <v>0.595</v>
       </c>
       <c r="H953" t="n">
-        <v>0.615</v>
+        <v>0.595</v>
       </c>
       <c r="I953" t="n">
-        <v>3102800</v>
+        <v>347500</v>
       </c>
     </row>
     <row r="954">
       <c r="A954" t="n">
-        <v>1581379200</v>
+        <v>1580256000</v>
       </c>
       <c r="B954" t="inlineStr">
         <is>
-          <t>2020-02-11</t>
+          <t>2020-01-29</t>
         </is>
       </c>
       <c r="C954" t="inlineStr">
@@ -33773,28 +33773,28 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>0.615</v>
+        <v>0.59</v>
       </c>
       <c r="F954" t="n">
-        <v>0.625</v>
+        <v>0.59</v>
       </c>
       <c r="G954" t="n">
-        <v>0.59</v>
+        <v>0.575</v>
       </c>
       <c r="H954" t="n">
-        <v>0.6</v>
+        <v>0.58</v>
       </c>
       <c r="I954" t="n">
-        <v>1408100</v>
+        <v>850800</v>
       </c>
     </row>
     <row r="955">
       <c r="A955" t="n">
-        <v>1581465600</v>
+        <v>1580342400</v>
       </c>
       <c r="B955" t="inlineStr">
         <is>
-          <t>2020-02-12</t>
+          <t>2020-01-30</t>
         </is>
       </c>
       <c r="C955" t="inlineStr">
@@ -33808,28 +33808,28 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>0.6</v>
+        <v>0.585</v>
       </c>
       <c r="F955" t="n">
-        <v>0.6</v>
+        <v>0.585</v>
       </c>
       <c r="G955" t="n">
         <v>0.58</v>
       </c>
       <c r="H955" t="n">
-        <v>0.59</v>
+        <v>0.58</v>
       </c>
       <c r="I955" t="n">
-        <v>744400</v>
+        <v>2141800</v>
       </c>
     </row>
     <row r="956">
       <c r="A956" t="n">
-        <v>1581552000</v>
+        <v>1580428800</v>
       </c>
       <c r="B956" t="inlineStr">
         <is>
-          <t>2020-02-13</t>
+          <t>2020-01-31</t>
         </is>
       </c>
       <c r="C956" t="inlineStr">
@@ -33843,28 +33843,28 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>0.595</v>
+        <v>0.58</v>
       </c>
       <c r="F956" t="n">
-        <v>0.595</v>
+        <v>0.58</v>
       </c>
       <c r="G956" t="n">
-        <v>0.58</v>
+        <v>0.57</v>
       </c>
       <c r="H956" t="n">
-        <v>0.59</v>
+        <v>0.57</v>
       </c>
       <c r="I956" t="n">
-        <v>1347900</v>
+        <v>2093600</v>
       </c>
     </row>
     <row r="957">
       <c r="A957" t="n">
-        <v>1581638400</v>
+        <v>1580688000</v>
       </c>
       <c r="B957" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-03</t>
         </is>
       </c>
       <c r="C957" t="inlineStr">
@@ -33878,28 +33878,28 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>0.585</v>
+        <v>0.57</v>
       </c>
       <c r="F957" t="n">
-        <v>0.595</v>
+        <v>0.57</v>
       </c>
       <c r="G957" t="n">
-        <v>0.58</v>
+        <v>0.555</v>
       </c>
       <c r="H957" t="n">
-        <v>0.595</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I957" t="n">
-        <v>984800</v>
+        <v>633500</v>
       </c>
     </row>
     <row r="958">
       <c r="A958" t="n">
-        <v>1581897600</v>
+        <v>1580774400</v>
       </c>
       <c r="B958" t="inlineStr">
         <is>
-          <t>2020-02-17</t>
+          <t>2020-02-04</t>
         </is>
       </c>
       <c r="C958" t="inlineStr">
@@ -33913,28 +33913,28 @@
         </is>
       </c>
       <c r="E958" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F958" t="n">
         <v>0.59</v>
       </c>
-      <c r="F958" t="n">
-        <v>0.63</v>
-      </c>
       <c r="G958" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H958" t="n">
-        <v>0.615</v>
+        <v>0.58</v>
       </c>
       <c r="I958" t="n">
-        <v>4079900</v>
+        <v>944300</v>
       </c>
     </row>
     <row r="959">
       <c r="A959" t="n">
-        <v>1581984000</v>
+        <v>1580860800</v>
       </c>
       <c r="B959" t="inlineStr">
         <is>
-          <t>2020-02-18</t>
+          <t>2020-02-05</t>
         </is>
       </c>
       <c r="C959" t="inlineStr">
@@ -33948,28 +33948,28 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>0.615</v>
+        <v>0.585</v>
       </c>
       <c r="F959" t="n">
-        <v>0.625</v>
+        <v>0.605</v>
       </c>
       <c r="G959" t="n">
-        <v>0.6</v>
+        <v>0.585</v>
       </c>
       <c r="H959" t="n">
-        <v>0.605</v>
+        <v>0.59</v>
       </c>
       <c r="I959" t="n">
-        <v>2087400</v>
+        <v>562100</v>
       </c>
     </row>
     <row r="960">
       <c r="A960" t="n">
-        <v>1582070400</v>
+        <v>1580947200</v>
       </c>
       <c r="B960" t="inlineStr">
         <is>
-          <t>2020-02-19</t>
+          <t>2020-02-06</t>
         </is>
       </c>
       <c r="C960" t="inlineStr">
@@ -33983,28 +33983,28 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>0.605</v>
+        <v>0.585</v>
       </c>
       <c r="F960" t="n">
-        <v>0.62</v>
+        <v>0.615</v>
       </c>
       <c r="G960" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="H960" t="n">
         <v>0.6</v>
       </c>
-      <c r="H960" t="n">
-        <v>0.605</v>
-      </c>
       <c r="I960" t="n">
-        <v>1380800</v>
+        <v>2185200</v>
       </c>
     </row>
     <row r="961">
       <c r="A961" t="n">
-        <v>1582156800</v>
+        <v>1581033600</v>
       </c>
       <c r="B961" t="inlineStr">
         <is>
-          <t>2020-02-20</t>
+          <t>2020-02-07</t>
         </is>
       </c>
       <c r="C961" t="inlineStr">
@@ -34021,25 +34021,25 @@
         <v>0.61</v>
       </c>
       <c r="F961" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="G961" t="n">
         <v>0.61</v>
       </c>
-      <c r="G961" t="n">
-        <v>0.6</v>
-      </c>
       <c r="H961" t="n">
-        <v>0.605</v>
+        <v>0.61</v>
       </c>
       <c r="I961" t="n">
-        <v>1337400</v>
+        <v>3331600</v>
       </c>
     </row>
     <row r="962">
       <c r="A962" t="n">
-        <v>1582243200</v>
+        <v>1581292800</v>
       </c>
       <c r="B962" t="inlineStr">
         <is>
-          <t>2020-02-21</t>
+          <t>2020-02-10</t>
         </is>
       </c>
       <c r="C962" t="inlineStr">
@@ -34053,28 +34053,28 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>0.6</v>
+        <v>0.605</v>
       </c>
       <c r="F962" t="n">
-        <v>0.61</v>
+        <v>0.625</v>
       </c>
       <c r="G962" t="n">
-        <v>0.595</v>
+        <v>0.585</v>
       </c>
       <c r="H962" t="n">
-        <v>0.6</v>
+        <v>0.615</v>
       </c>
       <c r="I962" t="n">
-        <v>736200</v>
+        <v>3102800</v>
       </c>
     </row>
     <row r="963">
       <c r="A963" t="n">
-        <v>1582502400</v>
+        <v>1581379200</v>
       </c>
       <c r="B963" t="inlineStr">
         <is>
-          <t>2020-02-24</t>
+          <t>2020-02-11</t>
         </is>
       </c>
       <c r="C963" t="inlineStr">
@@ -34088,28 +34088,28 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>0.585</v>
+        <v>0.615</v>
       </c>
       <c r="F963" t="n">
-        <v>0.595</v>
+        <v>0.625</v>
       </c>
       <c r="G963" t="n">
-        <v>0.585</v>
+        <v>0.59</v>
       </c>
       <c r="H963" t="n">
-        <v>0.595</v>
+        <v>0.6</v>
       </c>
       <c r="I963" t="n">
-        <v>1861200</v>
+        <v>1408100</v>
       </c>
     </row>
     <row r="964">
       <c r="A964" t="n">
-        <v>1582588800</v>
+        <v>1581465600</v>
       </c>
       <c r="B964" t="inlineStr">
         <is>
-          <t>2020-02-25</t>
+          <t>2020-02-12</t>
         </is>
       </c>
       <c r="C964" t="inlineStr">
@@ -34123,28 +34123,28 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>0.595</v>
+        <v>0.6</v>
       </c>
       <c r="F964" t="n">
-        <v>0.595</v>
+        <v>0.6</v>
       </c>
       <c r="G964" t="n">
-        <v>0.585</v>
+        <v>0.58</v>
       </c>
       <c r="H964" t="n">
         <v>0.59</v>
       </c>
       <c r="I964" t="n">
-        <v>815900</v>
+        <v>744400</v>
       </c>
     </row>
     <row r="965">
       <c r="A965" t="n">
-        <v>1582675200</v>
+        <v>1581552000</v>
       </c>
       <c r="B965" t="inlineStr">
         <is>
-          <t>2020-02-26</t>
+          <t>2020-02-13</t>
         </is>
       </c>
       <c r="C965" t="inlineStr">
@@ -34158,28 +34158,28 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>0.59</v>
+        <v>0.595</v>
       </c>
       <c r="F965" t="n">
         <v>0.595</v>
       </c>
       <c r="G965" t="n">
-        <v>0.585</v>
+        <v>0.58</v>
       </c>
       <c r="H965" t="n">
         <v>0.59</v>
       </c>
       <c r="I965" t="n">
-        <v>2463200</v>
+        <v>1347900</v>
       </c>
     </row>
     <row r="966">
       <c r="A966" t="n">
-        <v>1582761600</v>
+        <v>1581638400</v>
       </c>
       <c r="B966" t="inlineStr">
         <is>
-          <t>2020-02-27</t>
+          <t>2020-02-14</t>
         </is>
       </c>
       <c r="C966" t="inlineStr">
@@ -34193,28 +34193,28 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>0.59</v>
+        <v>0.585</v>
       </c>
       <c r="F966" t="n">
-        <v>0.59</v>
+        <v>0.595</v>
       </c>
       <c r="G966" t="n">
         <v>0.58</v>
       </c>
       <c r="H966" t="n">
-        <v>0.585</v>
+        <v>0.595</v>
       </c>
       <c r="I966" t="n">
-        <v>1224800</v>
+        <v>984800</v>
       </c>
     </row>
     <row r="967">
       <c r="A967" t="n">
-        <v>1582848000</v>
+        <v>1581897600</v>
       </c>
       <c r="B967" t="inlineStr">
         <is>
-          <t>2020-02-28</t>
+          <t>2020-02-17</t>
         </is>
       </c>
       <c r="C967" t="inlineStr">
@@ -34228,28 +34228,28 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>0.585</v>
+        <v>0.59</v>
       </c>
       <c r="F967" t="n">
-        <v>0.585</v>
+        <v>0.63</v>
       </c>
       <c r="G967" t="n">
-        <v>0.555</v>
+        <v>0.59</v>
       </c>
       <c r="H967" t="n">
-        <v>0.575</v>
+        <v>0.615</v>
       </c>
       <c r="I967" t="n">
-        <v>1915600</v>
+        <v>4079900</v>
       </c>
     </row>
     <row r="968">
       <c r="A968" t="n">
-        <v>1583107200</v>
+        <v>1581984000</v>
       </c>
       <c r="B968" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="C968" t="inlineStr">
@@ -34263,28 +34263,28 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.615</v>
       </c>
       <c r="F968" t="n">
-        <v>0.585</v>
+        <v>0.625</v>
       </c>
       <c r="G968" t="n">
-        <v>0.555</v>
+        <v>0.6</v>
       </c>
       <c r="H968" t="n">
-        <v>0.585</v>
+        <v>0.605</v>
       </c>
       <c r="I968" t="n">
-        <v>579600</v>
+        <v>2087400</v>
       </c>
     </row>
     <row r="969">
       <c r="A969" t="n">
-        <v>1583193600</v>
+        <v>1582070400</v>
       </c>
       <c r="B969" t="inlineStr">
         <is>
-          <t>2020-03-03</t>
+          <t>2020-02-19</t>
         </is>
       </c>
       <c r="C969" t="inlineStr">
@@ -34298,28 +34298,28 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>0.585</v>
+        <v>0.605</v>
       </c>
       <c r="F969" t="n">
-        <v>0.585</v>
+        <v>0.62</v>
       </c>
       <c r="G969" t="n">
-        <v>0.58</v>
+        <v>0.6</v>
       </c>
       <c r="H969" t="n">
-        <v>0.585</v>
+        <v>0.605</v>
       </c>
       <c r="I969" t="n">
-        <v>334800</v>
+        <v>1380800</v>
       </c>
     </row>
     <row r="970">
       <c r="A970" t="n">
-        <v>1583280000</v>
+        <v>1582156800</v>
       </c>
       <c r="B970" t="inlineStr">
         <is>
-          <t>2020-03-04</t>
+          <t>2020-02-20</t>
         </is>
       </c>
       <c r="C970" t="inlineStr">
@@ -34333,28 +34333,28 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>0.585</v>
+        <v>0.61</v>
       </c>
       <c r="F970" t="n">
-        <v>0.585</v>
+        <v>0.61</v>
       </c>
       <c r="G970" t="n">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="H970" t="n">
-        <v>0.585</v>
+        <v>0.605</v>
       </c>
       <c r="I970" t="n">
-        <v>321200</v>
+        <v>1337400</v>
       </c>
     </row>
     <row r="971">
       <c r="A971" t="n">
-        <v>1583366400</v>
+        <v>1582243200</v>
       </c>
       <c r="B971" t="inlineStr">
         <is>
-          <t>2020-03-05</t>
+          <t>2020-02-21</t>
         </is>
       </c>
       <c r="C971" t="inlineStr">
@@ -34368,28 +34368,28 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>0.58</v>
+        <v>0.6</v>
       </c>
       <c r="F971" t="n">
-        <v>0.585</v>
+        <v>0.61</v>
       </c>
       <c r="G971" t="n">
-        <v>0.57</v>
+        <v>0.595</v>
       </c>
       <c r="H971" t="n">
-        <v>0.585</v>
+        <v>0.6</v>
       </c>
       <c r="I971" t="n">
-        <v>181600</v>
+        <v>736200</v>
       </c>
     </row>
     <row r="972">
       <c r="A972" t="n">
-        <v>1583452800</v>
+        <v>1582502400</v>
       </c>
       <c r="B972" t="inlineStr">
         <is>
-          <t>2020-03-06</t>
+          <t>2020-02-24</t>
         </is>
       </c>
       <c r="C972" t="inlineStr">
@@ -34403,28 +34403,28 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>0.575</v>
+        <v>0.585</v>
       </c>
       <c r="F972" t="n">
-        <v>0.58</v>
+        <v>0.595</v>
       </c>
       <c r="G972" t="n">
-        <v>0.57</v>
+        <v>0.585</v>
       </c>
       <c r="H972" t="n">
-        <v>0.58</v>
+        <v>0.595</v>
       </c>
       <c r="I972" t="n">
-        <v>407700</v>
+        <v>1861200</v>
       </c>
     </row>
     <row r="973">
       <c r="A973" t="n">
-        <v>1583712000</v>
+        <v>1582588800</v>
       </c>
       <c r="B973" t="inlineStr">
         <is>
-          <t>2020-03-09</t>
+          <t>2020-02-25</t>
         </is>
       </c>
       <c r="C973" t="inlineStr">
@@ -34438,28 +34438,28 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>0.57</v>
+        <v>0.595</v>
       </c>
       <c r="F973" t="n">
-        <v>0.57</v>
+        <v>0.595</v>
       </c>
       <c r="G973" t="n">
-        <v>0.545</v>
+        <v>0.585</v>
       </c>
       <c r="H973" t="n">
-        <v>0.55</v>
+        <v>0.59</v>
       </c>
       <c r="I973" t="n">
-        <v>2421200</v>
+        <v>815900</v>
       </c>
     </row>
     <row r="974">
       <c r="A974" t="n">
-        <v>1583798400</v>
+        <v>1582675200</v>
       </c>
       <c r="B974" t="inlineStr">
         <is>
-          <t>2020-03-10</t>
+          <t>2020-02-26</t>
         </is>
       </c>
       <c r="C974" t="inlineStr">
@@ -34473,28 +34473,28 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>0.52</v>
+        <v>0.59</v>
       </c>
       <c r="F974" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.595</v>
       </c>
       <c r="G974" t="n">
-        <v>0.52</v>
+        <v>0.585</v>
       </c>
       <c r="H974" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="I974" t="n">
-        <v>639700</v>
+        <v>2463200</v>
       </c>
     </row>
     <row r="975">
       <c r="A975" t="n">
-        <v>1583884800</v>
+        <v>1582761600</v>
       </c>
       <c r="B975" t="inlineStr">
         <is>
-          <t>2020-03-11</t>
+          <t>2020-02-27</t>
         </is>
       </c>
       <c r="C975" t="inlineStr">
@@ -34508,28 +34508,28 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="F975" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.59</v>
       </c>
       <c r="G975" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="H975" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.585</v>
       </c>
       <c r="I975" t="n">
-        <v>4410800</v>
+        <v>1224800</v>
       </c>
     </row>
     <row r="976">
       <c r="A976" t="n">
-        <v>1583971200</v>
+        <v>1582848000</v>
       </c>
       <c r="B976" t="inlineStr">
         <is>
-          <t>2020-03-12</t>
+          <t>2020-02-28</t>
         </is>
       </c>
       <c r="C976" t="inlineStr">
@@ -34543,53 +34543,368 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.585</v>
       </c>
       <c r="F976" t="n">
-        <v>0.575</v>
+        <v>0.585</v>
       </c>
       <c r="G976" t="n">
-        <v>0.55</v>
+        <v>0.555</v>
       </c>
       <c r="H976" t="n">
         <v>0.575</v>
       </c>
       <c r="I976" t="n">
-        <v>5066700</v>
+        <v>1915600</v>
       </c>
     </row>
     <row r="977">
       <c r="A977" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B977" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C977" t="inlineStr">
+        <is>
+          <t>5273</t>
+        </is>
+      </c>
+      <c r="D977" t="inlineStr">
+        <is>
+          <t>CHINHIN</t>
+        </is>
+      </c>
+      <c r="E977" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F977" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="G977" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="H977" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="I977" t="n">
+        <v>579600</v>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B978" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C978" t="inlineStr">
+        <is>
+          <t>5273</t>
+        </is>
+      </c>
+      <c r="D978" t="inlineStr">
+        <is>
+          <t>CHINHIN</t>
+        </is>
+      </c>
+      <c r="E978" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="F978" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="G978" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H978" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="I978" t="n">
+        <v>334800</v>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B979" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C979" t="inlineStr">
+        <is>
+          <t>5273</t>
+        </is>
+      </c>
+      <c r="D979" t="inlineStr">
+        <is>
+          <t>CHINHIN</t>
+        </is>
+      </c>
+      <c r="E979" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="F979" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="G979" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H979" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="I979" t="n">
+        <v>321200</v>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B980" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C980" t="inlineStr">
+        <is>
+          <t>5273</t>
+        </is>
+      </c>
+      <c r="D980" t="inlineStr">
+        <is>
+          <t>CHINHIN</t>
+        </is>
+      </c>
+      <c r="E980" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="F980" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="G980" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H980" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="I980" t="n">
+        <v>181600</v>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B981" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C981" t="inlineStr">
+        <is>
+          <t>5273</t>
+        </is>
+      </c>
+      <c r="D981" t="inlineStr">
+        <is>
+          <t>CHINHIN</t>
+        </is>
+      </c>
+      <c r="E981" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="F981" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="G981" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H981" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="I981" t="n">
+        <v>407700</v>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B982" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C982" t="inlineStr">
+        <is>
+          <t>5273</t>
+        </is>
+      </c>
+      <c r="D982" t="inlineStr">
+        <is>
+          <t>CHINHIN</t>
+        </is>
+      </c>
+      <c r="E982" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="F982" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="G982" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="H982" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I982" t="n">
+        <v>2421200</v>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B983" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C983" t="inlineStr">
+        <is>
+          <t>5273</t>
+        </is>
+      </c>
+      <c r="D983" t="inlineStr">
+        <is>
+          <t>CHINHIN</t>
+        </is>
+      </c>
+      <c r="E983" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F983" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G983" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="H983" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="I983" t="n">
+        <v>639700</v>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B984" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C984" t="inlineStr">
+        <is>
+          <t>5273</t>
+        </is>
+      </c>
+      <c r="D984" t="inlineStr">
+        <is>
+          <t>CHINHIN</t>
+        </is>
+      </c>
+      <c r="E984" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F984" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="G984" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H984" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="I984" t="n">
+        <v>4410800</v>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B985" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C985" t="inlineStr">
+        <is>
+          <t>5273</t>
+        </is>
+      </c>
+      <c r="D985" t="inlineStr">
+        <is>
+          <t>CHINHIN</t>
+        </is>
+      </c>
+      <c r="E985" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F985" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="G985" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H985" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="I985" t="n">
+        <v>5066700</v>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="n">
         <v>1584057600</v>
       </c>
-      <c r="B977" t="inlineStr">
+      <c r="B986" t="inlineStr">
         <is>
           <t>2020-03-13</t>
         </is>
       </c>
-      <c r="C977" t="inlineStr">
-        <is>
-          <t>5273</t>
-        </is>
-      </c>
-      <c r="D977" t="inlineStr">
-        <is>
-          <t>CHINHIN</t>
-        </is>
-      </c>
-      <c r="E977" t="n">
+      <c r="C986" t="inlineStr">
+        <is>
+          <t>5273</t>
+        </is>
+      </c>
+      <c r="D986" t="inlineStr">
+        <is>
+          <t>CHINHIN</t>
+        </is>
+      </c>
+      <c r="E986" t="n">
         <v>0.55</v>
       </c>
-      <c r="F977" t="n">
+      <c r="F986" t="n">
         <v>0.55</v>
       </c>
-      <c r="G977" t="n">
+      <c r="G986" t="n">
         <v>0.5</v>
       </c>
-      <c r="H977" t="n">
+      <c r="H986" t="n">
         <v>0.51</v>
       </c>
-      <c r="I977" t="n">
+      <c r="I986" t="n">
         <v>4867400</v>
       </c>
     </row>

--- a/data/5273.xlsx
+++ b/data/5273.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I986"/>
+  <dimension ref="A1:I987"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34908,6 +34908,41 @@
         <v>4867400</v>
       </c>
     </row>
+    <row r="987">
+      <c r="A987" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B987" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C987" t="inlineStr">
+        <is>
+          <t>5273</t>
+        </is>
+      </c>
+      <c r="D987" t="inlineStr">
+        <is>
+          <t>CHINHIN</t>
+        </is>
+      </c>
+      <c r="E987" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F987" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G987" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="H987" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I987" t="n">
+        <v>556500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5273.xlsx
+++ b/data/5273.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I987"/>
+  <dimension ref="A1:I988"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34943,6 +34943,41 @@
         <v>556500</v>
       </c>
     </row>
+    <row r="988">
+      <c r="A988" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B988" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C988" t="inlineStr">
+        <is>
+          <t>5273</t>
+        </is>
+      </c>
+      <c r="D988" t="inlineStr">
+        <is>
+          <t>CHINHIN</t>
+        </is>
+      </c>
+      <c r="E988" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F988" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G988" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H988" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I988" t="n">
+        <v>279100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5273.xlsx
+++ b/data/5273.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I988"/>
+  <dimension ref="A1:I989"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34978,6 +34978,41 @@
         <v>279100</v>
       </c>
     </row>
+    <row r="989">
+      <c r="A989" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B989" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C989" t="inlineStr">
+        <is>
+          <t>5273</t>
+        </is>
+      </c>
+      <c r="D989" t="inlineStr">
+        <is>
+          <t>CHINHIN</t>
+        </is>
+      </c>
+      <c r="E989" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F989" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="G989" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="H989" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I989" t="n">
+        <v>372000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5273.xlsx
+++ b/data/5273.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I989"/>
+  <dimension ref="A1:I990"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35013,6 +35013,41 @@
         <v>372000</v>
       </c>
     </row>
+    <row r="990">
+      <c r="A990" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B990" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C990" t="inlineStr">
+        <is>
+          <t>5273</t>
+        </is>
+      </c>
+      <c r="D990" t="inlineStr">
+        <is>
+          <t>CHINHIN</t>
+        </is>
+      </c>
+      <c r="E990" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="F990" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G990" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="H990" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I990" t="n">
+        <v>1182000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5273.xlsx
+++ b/data/5273.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I990"/>
+  <dimension ref="A1:I991"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35048,6 +35048,41 @@
         <v>1182000</v>
       </c>
     </row>
+    <row r="991">
+      <c r="A991" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B991" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C991" t="inlineStr">
+        <is>
+          <t>5273</t>
+        </is>
+      </c>
+      <c r="D991" t="inlineStr">
+        <is>
+          <t>CHINHIN</t>
+        </is>
+      </c>
+      <c r="E991" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="F991" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G991" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="H991" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I991" t="n">
+        <v>382500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5273.xlsx
+++ b/data/5273.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I991"/>
+  <dimension ref="A1:I992"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35083,6 +35083,41 @@
         <v>382500</v>
       </c>
     </row>
+    <row r="992">
+      <c r="A992" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B992" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C992" t="inlineStr">
+        <is>
+          <t>5273</t>
+        </is>
+      </c>
+      <c r="D992" t="inlineStr">
+        <is>
+          <t>CHINHIN</t>
+        </is>
+      </c>
+      <c r="E992" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F992" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G992" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="H992" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I992" t="n">
+        <v>82400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5273.xlsx
+++ b/data/5273.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I992"/>
+  <dimension ref="A1:I993"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35118,6 +35118,41 @@
         <v>82400</v>
       </c>
     </row>
+    <row r="993">
+      <c r="A993" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B993" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C993" t="inlineStr">
+        <is>
+          <t>5273</t>
+        </is>
+      </c>
+      <c r="D993" t="inlineStr">
+        <is>
+          <t>CHINHIN</t>
+        </is>
+      </c>
+      <c r="E993" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="F993" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="G993" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H993" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="I993" t="n">
+        <v>131800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5273.xlsx
+++ b/data/5273.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I993"/>
+  <dimension ref="A1:I994"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35153,6 +35153,41 @@
         <v>131800</v>
       </c>
     </row>
+    <row r="994">
+      <c r="A994" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B994" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C994" t="inlineStr">
+        <is>
+          <t>5273</t>
+        </is>
+      </c>
+      <c r="D994" t="inlineStr">
+        <is>
+          <t>CHINHIN</t>
+        </is>
+      </c>
+      <c r="E994" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="F994" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="G994" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H994" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="I994" t="n">
+        <v>163800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5273.xlsx
+++ b/data/5273.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I994"/>
+  <dimension ref="A1:I995"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35188,6 +35188,41 @@
         <v>163800</v>
       </c>
     </row>
+    <row r="995">
+      <c r="A995" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B995" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C995" t="inlineStr">
+        <is>
+          <t>5273</t>
+        </is>
+      </c>
+      <c r="D995" t="inlineStr">
+        <is>
+          <t>CHINHIN</t>
+        </is>
+      </c>
+      <c r="E995" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="F995" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="G995" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="H995" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I995" t="n">
+        <v>171100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5273.xlsx
+++ b/data/5273.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I995"/>
+  <dimension ref="A1:I996"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35223,6 +35223,41 @@
         <v>171100</v>
       </c>
     </row>
+    <row r="996">
+      <c r="A996" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B996" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C996" t="inlineStr">
+        <is>
+          <t>5273</t>
+        </is>
+      </c>
+      <c r="D996" t="inlineStr">
+        <is>
+          <t>CHINHIN</t>
+        </is>
+      </c>
+      <c r="E996" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="F996" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="G996" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="H996" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="I996" t="n">
+        <v>133700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5273.xlsx
+++ b/data/5273.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I996"/>
+  <dimension ref="A1:I997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35258,6 +35258,41 @@
         <v>133700</v>
       </c>
     </row>
+    <row r="997">
+      <c r="A997" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B997" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C997" t="inlineStr">
+        <is>
+          <t>5273</t>
+        </is>
+      </c>
+      <c r="D997" t="inlineStr">
+        <is>
+          <t>CHINHIN</t>
+        </is>
+      </c>
+      <c r="E997" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F997" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="G997" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H997" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I997" t="n">
+        <v>58600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5273.xlsx
+++ b/data/5273.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I997"/>
+  <dimension ref="A1:I998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35293,6 +35293,41 @@
         <v>58600</v>
       </c>
     </row>
+    <row r="998">
+      <c r="A998" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B998" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C998" t="inlineStr">
+        <is>
+          <t>5273</t>
+        </is>
+      </c>
+      <c r="D998" t="inlineStr">
+        <is>
+          <t>CHINHIN</t>
+        </is>
+      </c>
+      <c r="E998" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F998" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G998" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="H998" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I998" t="n">
+        <v>32900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5273.xlsx
+++ b/data/5273.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I998"/>
+  <dimension ref="A1:I999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35328,6 +35328,41 @@
         <v>32900</v>
       </c>
     </row>
+    <row r="999">
+      <c r="A999" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B999" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C999" t="inlineStr">
+        <is>
+          <t>5273</t>
+        </is>
+      </c>
+      <c r="D999" t="inlineStr">
+        <is>
+          <t>CHINHIN</t>
+        </is>
+      </c>
+      <c r="E999" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F999" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G999" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H999" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I999" t="n">
+        <v>45800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5273.xlsx
+++ b/data/5273.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I999"/>
+  <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35363,6 +35363,41 @@
         <v>45800</v>
       </c>
     </row>
+    <row r="1000">
+      <c r="A1000" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1000" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1000" t="inlineStr">
+        <is>
+          <t>5273</t>
+        </is>
+      </c>
+      <c r="D1000" t="inlineStr">
+        <is>
+          <t>CHINHIN</t>
+        </is>
+      </c>
+      <c r="E1000" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="F1000" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1000" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H1000" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1000" t="n">
+        <v>138600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5273.xlsx
+++ b/data/5273.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1000"/>
+  <dimension ref="A1:I1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35398,6 +35398,41 @@
         <v>138600</v>
       </c>
     </row>
+    <row r="1001">
+      <c r="A1001" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1001" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1001" t="inlineStr">
+        <is>
+          <t>5273</t>
+        </is>
+      </c>
+      <c r="D1001" t="inlineStr">
+        <is>
+          <t>CHINHIN</t>
+        </is>
+      </c>
+      <c r="E1001" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F1001" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1001" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H1001" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="I1001" t="n">
+        <v>114400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5273.xlsx
+++ b/data/5273.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1001"/>
+  <dimension ref="A1:I1002"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35433,6 +35433,41 @@
         <v>114400</v>
       </c>
     </row>
+    <row r="1002">
+      <c r="A1002" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B1002" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C1002" t="inlineStr">
+        <is>
+          <t>5273</t>
+        </is>
+      </c>
+      <c r="D1002" t="inlineStr">
+        <is>
+          <t>CHINHIN</t>
+        </is>
+      </c>
+      <c r="E1002" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="F1002" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G1002" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H1002" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="I1002" t="n">
+        <v>263300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5273.xlsx
+++ b/data/5273.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1002"/>
+  <dimension ref="A1:I1003"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35468,6 +35468,41 @@
         <v>263300</v>
       </c>
     </row>
+    <row r="1003">
+      <c r="A1003" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B1003" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C1003" t="inlineStr">
+        <is>
+          <t>5273</t>
+        </is>
+      </c>
+      <c r="D1003" t="inlineStr">
+        <is>
+          <t>CHINHIN</t>
+        </is>
+      </c>
+      <c r="E1003" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F1003" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="G1003" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="H1003" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="I1003" t="n">
+        <v>177200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5273.xlsx
+++ b/data/5273.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1003"/>
+  <dimension ref="A1:I1004"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35503,6 +35503,41 @@
         <v>177200</v>
       </c>
     </row>
+    <row r="1004">
+      <c r="A1004" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B1004" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C1004" t="inlineStr">
+        <is>
+          <t>5273</t>
+        </is>
+      </c>
+      <c r="D1004" t="inlineStr">
+        <is>
+          <t>CHINHIN</t>
+        </is>
+      </c>
+      <c r="E1004" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="F1004" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G1004" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="H1004" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="I1004" t="n">
+        <v>132000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5273.xlsx
+++ b/data/5273.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1004"/>
+  <dimension ref="A1:I1005"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35538,6 +35538,41 @@
         <v>132000</v>
       </c>
     </row>
+    <row r="1005">
+      <c r="A1005" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B1005" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C1005" t="inlineStr">
+        <is>
+          <t>5273</t>
+        </is>
+      </c>
+      <c r="D1005" t="inlineStr">
+        <is>
+          <t>CHINHIN</t>
+        </is>
+      </c>
+      <c r="E1005" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="F1005" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G1005" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="H1005" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="I1005" t="n">
+        <v>121500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5273.xlsx
+++ b/data/5273.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1005"/>
+  <dimension ref="A1:I1006"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35573,6 +35573,41 @@
         <v>121500</v>
       </c>
     </row>
+    <row r="1006">
+      <c r="A1006" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B1006" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C1006" t="inlineStr">
+        <is>
+          <t>5273</t>
+        </is>
+      </c>
+      <c r="D1006" t="inlineStr">
+        <is>
+          <t>CHINHIN</t>
+        </is>
+      </c>
+      <c r="E1006" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="F1006" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="G1006" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1006" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="I1006" t="n">
+        <v>116200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5273.xlsx
+++ b/data/5273.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1006"/>
+  <dimension ref="A1:I1007"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35608,6 +35608,41 @@
         <v>116200</v>
       </c>
     </row>
+    <row r="1007">
+      <c r="A1007" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B1007" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C1007" t="inlineStr">
+        <is>
+          <t>5273</t>
+        </is>
+      </c>
+      <c r="D1007" t="inlineStr">
+        <is>
+          <t>CHINHIN</t>
+        </is>
+      </c>
+      <c r="E1007" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1007" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1007" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="H1007" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="I1007" t="n">
+        <v>83900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5273.xlsx
+++ b/data/5273.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1007"/>
+  <dimension ref="A1:I1008"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35643,6 +35643,41 @@
         <v>83900</v>
       </c>
     </row>
+    <row r="1008">
+      <c r="A1008" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B1008" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C1008" t="inlineStr">
+        <is>
+          <t>5273</t>
+        </is>
+      </c>
+      <c r="D1008" t="inlineStr">
+        <is>
+          <t>CHINHIN</t>
+        </is>
+      </c>
+      <c r="E1008" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1008" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="G1008" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="H1008" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1008" t="n">
+        <v>96100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5273.xlsx
+++ b/data/5273.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1008"/>
+  <dimension ref="A1:I1009"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35678,6 +35678,41 @@
         <v>96100</v>
       </c>
     </row>
+    <row r="1009">
+      <c r="A1009" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B1009" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C1009" t="inlineStr">
+        <is>
+          <t>5273</t>
+        </is>
+      </c>
+      <c r="D1009" t="inlineStr">
+        <is>
+          <t>CHINHIN</t>
+        </is>
+      </c>
+      <c r="E1009" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="F1009" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="G1009" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="H1009" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1009" t="n">
+        <v>65500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5273.xlsx
+++ b/data/5273.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1009"/>
+  <dimension ref="A1:I1010"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35713,6 +35713,41 @@
         <v>65500</v>
       </c>
     </row>
+    <row r="1010">
+      <c r="A1010" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B1010" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C1010" t="inlineStr">
+        <is>
+          <t>5273</t>
+        </is>
+      </c>
+      <c r="D1010" t="inlineStr">
+        <is>
+          <t>CHINHIN</t>
+        </is>
+      </c>
+      <c r="E1010" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1010" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1010" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1010" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1010" t="n">
+        <v>24000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5273.xlsx
+++ b/data/5273.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1010"/>
+  <dimension ref="A1:I1011"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35748,6 +35748,41 @@
         <v>24000</v>
       </c>
     </row>
+    <row r="1011">
+      <c r="A1011" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B1011" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C1011" t="inlineStr">
+        <is>
+          <t>5273</t>
+        </is>
+      </c>
+      <c r="D1011" t="inlineStr">
+        <is>
+          <t>CHINHIN</t>
+        </is>
+      </c>
+      <c r="E1011" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="F1011" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="G1011" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="H1011" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="I1011" t="n">
+        <v>177800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5273.xlsx
+++ b/data/5273.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1011"/>
+  <dimension ref="A1:I1013"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35783,6 +35783,76 @@
         <v>177800</v>
       </c>
     </row>
+    <row r="1012">
+      <c r="A1012" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B1012" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C1012" t="inlineStr">
+        <is>
+          <t>5273</t>
+        </is>
+      </c>
+      <c r="D1012" t="inlineStr">
+        <is>
+          <t>CHINHIN</t>
+        </is>
+      </c>
+      <c r="E1012" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F1012" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G1012" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="H1012" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="I1012" t="n">
+        <v>372400</v>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B1013" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C1013" t="inlineStr">
+        <is>
+          <t>5273</t>
+        </is>
+      </c>
+      <c r="D1013" t="inlineStr">
+        <is>
+          <t>CHINHIN</t>
+        </is>
+      </c>
+      <c r="E1013" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="F1013" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="G1013" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1013" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="I1013" t="n">
+        <v>217100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5273.xlsx
+++ b/data/5273.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1013"/>
+  <dimension ref="A1:I1014"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35853,6 +35853,41 @@
         <v>217100</v>
       </c>
     </row>
+    <row r="1014">
+      <c r="A1014" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B1014" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C1014" t="inlineStr">
+        <is>
+          <t>5273</t>
+        </is>
+      </c>
+      <c r="D1014" t="inlineStr">
+        <is>
+          <t>CHINHIN</t>
+        </is>
+      </c>
+      <c r="E1014" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1014" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G1014" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="H1014" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="I1014" t="n">
+        <v>122800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5273.xlsx
+++ b/data/5273.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1014"/>
+  <dimension ref="A1:I1017"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35888,6 +35888,111 @@
         <v>122800</v>
       </c>
     </row>
+    <row r="1015">
+      <c r="A1015" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B1015" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C1015" t="inlineStr">
+        <is>
+          <t>5273</t>
+        </is>
+      </c>
+      <c r="D1015" t="inlineStr">
+        <is>
+          <t>CHINHIN</t>
+        </is>
+      </c>
+      <c r="E1015" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F1015" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="G1015" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="H1015" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="I1015" t="n">
+        <v>98400</v>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B1016" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C1016" t="inlineStr">
+        <is>
+          <t>5273</t>
+        </is>
+      </c>
+      <c r="D1016" t="inlineStr">
+        <is>
+          <t>CHINHIN</t>
+        </is>
+      </c>
+      <c r="E1016" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F1016" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="G1016" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="H1016" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="I1016" t="n">
+        <v>142000</v>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B1017" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C1017" t="inlineStr">
+        <is>
+          <t>5273</t>
+        </is>
+      </c>
+      <c r="D1017" t="inlineStr">
+        <is>
+          <t>CHINHIN</t>
+        </is>
+      </c>
+      <c r="E1017" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F1017" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="G1017" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="H1017" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="I1017" t="n">
+        <v>634300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5273.xlsx
+++ b/data/5273.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1017"/>
+  <dimension ref="A1:I1018"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35993,6 +35993,41 @@
         <v>634300</v>
       </c>
     </row>
+    <row r="1018">
+      <c r="A1018" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B1018" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C1018" t="inlineStr">
+        <is>
+          <t>5273</t>
+        </is>
+      </c>
+      <c r="D1018" t="inlineStr">
+        <is>
+          <t>CHINHIN</t>
+        </is>
+      </c>
+      <c r="E1018" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="F1018" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G1018" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="H1018" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I1018" t="n">
+        <v>2823600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5273.xlsx
+++ b/data/5273.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1018"/>
+  <dimension ref="A1:I1019"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36028,6 +36028,41 @@
         <v>2823600</v>
       </c>
     </row>
+    <row r="1019">
+      <c r="A1019" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B1019" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C1019" t="inlineStr">
+        <is>
+          <t>5273</t>
+        </is>
+      </c>
+      <c r="D1019" t="inlineStr">
+        <is>
+          <t>CHINHIN</t>
+        </is>
+      </c>
+      <c r="E1019" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="F1019" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="G1019" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="H1019" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I1019" t="n">
+        <v>3545200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5273.xlsx
+++ b/data/5273.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1019"/>
+  <dimension ref="A1:I1022"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36063,6 +36063,111 @@
         <v>3545200</v>
       </c>
     </row>
+    <row r="1020">
+      <c r="A1020" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B1020" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C1020" t="inlineStr">
+        <is>
+          <t>5273</t>
+        </is>
+      </c>
+      <c r="D1020" t="inlineStr">
+        <is>
+          <t>CHINHIN</t>
+        </is>
+      </c>
+      <c r="E1020" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F1020" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G1020" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H1020" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I1020" t="n">
+        <v>585100</v>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B1021" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C1021" t="inlineStr">
+        <is>
+          <t>5273</t>
+        </is>
+      </c>
+      <c r="D1021" t="inlineStr">
+        <is>
+          <t>CHINHIN</t>
+        </is>
+      </c>
+      <c r="E1021" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F1021" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="G1021" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="H1021" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I1021" t="n">
+        <v>396800</v>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B1022" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C1022" t="inlineStr">
+        <is>
+          <t>5273</t>
+        </is>
+      </c>
+      <c r="D1022" t="inlineStr">
+        <is>
+          <t>CHINHIN</t>
+        </is>
+      </c>
+      <c r="E1022" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="F1022" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="G1022" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H1022" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="I1022" t="n">
+        <v>2566400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
